--- a/Output/Sagital Elevation.xlsx
+++ b/Output/Sagital Elevation.xlsx
@@ -9,16 +9,15 @@
   <sheets>
     <sheet name="Angle" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
-    <sheet name="IR" sheetId="3" r:id="rId3"/>
-    <sheet name="Muscle.Fm" sheetId="4" r:id="rId4"/>
-    <sheet name="Muscle.MomentArm" sheetId="5" r:id="rId5"/>
+    <sheet name="Muscle.Fm" sheetId="3" r:id="rId3"/>
+    <sheet name="Muscle.MomentArm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="51">
   <si>
     <t>H0Lat G-10Lat G-6Sup</t>
   </si>
@@ -75,12 +74,6 @@
   </si>
   <si>
     <t>glenohumeral reaction force [N]</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Instability ratio</t>
   </si>
   <si>
     <t>Deltoideus lateral</t>
@@ -8249,1654 +8242,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>-0.9758941451135935</v>
-      </c>
-      <c r="D3">
-        <v>-0.8691328868233728</v>
-      </c>
-      <c r="E3">
-        <v>-0.5489423013786259</v>
-      </c>
-      <c r="F3">
-        <v>-0.4730949521934722</v>
-      </c>
-      <c r="G3">
-        <v>-0.6729602248745381</v>
-      </c>
-      <c r="H3">
-        <v>-0.528610533004813</v>
-      </c>
-      <c r="I3">
-        <v>-0.3608541053486746</v>
-      </c>
-      <c r="J3">
-        <v>-0.3064450922702626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4">
-        <v>-0.5818492475282322</v>
-      </c>
-      <c r="D4">
-        <v>-0.4635987459797063</v>
-      </c>
-      <c r="E4">
-        <v>-0.3902096228504019</v>
-      </c>
-      <c r="F4">
-        <v>-0.2626208091005561</v>
-      </c>
-      <c r="G4">
-        <v>-0.5208327064649912</v>
-      </c>
-      <c r="H4">
-        <v>-0.3765509755068878</v>
-      </c>
-      <c r="I4">
-        <v>-0.2593578687922677</v>
-      </c>
-      <c r="J4">
-        <v>-0.1612515604546505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5">
-        <v>-0.3672698723593477</v>
-      </c>
-      <c r="D5">
-        <v>-0.2125425890957932</v>
-      </c>
-      <c r="E5">
-        <v>-0.3089568842828193</v>
-      </c>
-      <c r="F5">
-        <v>-0.1771029019888319</v>
-      </c>
-      <c r="G5">
-        <v>-0.4341464757440759</v>
-      </c>
-      <c r="H5">
-        <v>-0.2853155424656064</v>
-      </c>
-      <c r="I5">
-        <v>-0.2018088622103572</v>
-      </c>
-      <c r="J5">
-        <v>-0.1084850965099525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6">
-        <v>-0.4336793754958584</v>
-      </c>
-      <c r="D6">
-        <v>-0.2914893449654963</v>
-      </c>
-      <c r="E6">
-        <v>-0.3324224001346075</v>
-      </c>
-      <c r="F6">
-        <v>-0.2020947126343929</v>
-      </c>
-      <c r="G6">
-        <v>-0.4132702881133365</v>
-      </c>
-      <c r="H6">
-        <v>-0.2818972565336244</v>
-      </c>
-      <c r="I6">
-        <v>-0.2015732409164387</v>
-      </c>
-      <c r="J6">
-        <v>-0.1060073807406342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7">
-        <v>-0.6706955483748926</v>
-      </c>
-      <c r="D7">
-        <v>-0.5389532081500741</v>
-      </c>
-      <c r="E7">
-        <v>-0.4307247246178305</v>
-      </c>
-      <c r="F7">
-        <v>-0.3072431055689022</v>
-      </c>
-      <c r="G7">
-        <v>-0.436740846826623</v>
-      </c>
-      <c r="H7">
-        <v>-0.3197802808590588</v>
-      </c>
-      <c r="I7">
-        <v>-0.2403588876727166</v>
-      </c>
-      <c r="J7">
-        <v>-0.1288926894518114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8">
-        <v>-0.9082799647965649</v>
-      </c>
-      <c r="D8">
-        <v>-0.7488943782691001</v>
-      </c>
-      <c r="E8">
-        <v>-0.5229351613724574</v>
-      </c>
-      <c r="F8">
-        <v>-0.4466398944991913</v>
-      </c>
-      <c r="G8">
-        <v>-0.5031751977253073</v>
-      </c>
-      <c r="H8">
-        <v>-0.3912512240410579</v>
-      </c>
-      <c r="I8">
-        <v>-0.2584565152787895</v>
-      </c>
-      <c r="J8">
-        <v>-0.193714827905019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9">
-        <v>-1.10238827113266</v>
-      </c>
-      <c r="D9">
-        <v>-1.007569725837791</v>
-      </c>
-      <c r="E9">
-        <v>-0.7426491349941864</v>
-      </c>
-      <c r="F9">
-        <v>-0.6572495589622188</v>
-      </c>
-      <c r="G9">
-        <v>-0.6182490025852425</v>
-      </c>
-      <c r="H9">
-        <v>-0.5316597431791295</v>
-      </c>
-      <c r="I9">
-        <v>-0.3844192520446335</v>
-      </c>
-      <c r="J9">
-        <v>-0.3174477428688944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10">
-        <v>-1.240291039113269</v>
-      </c>
-      <c r="D10">
-        <v>-1.158231724207778</v>
-      </c>
-      <c r="E10">
-        <v>-0.8799167655008424</v>
-      </c>
-      <c r="F10">
-        <v>-0.7917278634653494</v>
-      </c>
-      <c r="G10">
-        <v>-0.6992450499571665</v>
-      </c>
-      <c r="H10">
-        <v>-0.6268972136581991</v>
-      </c>
-      <c r="I10">
-        <v>-0.4821708131389842</v>
-      </c>
-      <c r="J10">
-        <v>-0.4070091802443321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11">
-        <v>-1.290689533615522</v>
-      </c>
-      <c r="D11">
-        <v>-1.228524269775091</v>
-      </c>
-      <c r="E11">
-        <v>-0.9586038157770211</v>
-      </c>
-      <c r="F11">
-        <v>-0.8715179438891074</v>
-      </c>
-      <c r="G11">
-        <v>-0.7557778887334202</v>
-      </c>
-      <c r="H11">
-        <v>-0.6815303642131719</v>
-      </c>
-      <c r="I11">
-        <v>-0.5392299472431458</v>
-      </c>
-      <c r="J11">
-        <v>-0.4713025482172607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12">
-        <v>-1.314993048859109</v>
-      </c>
-      <c r="D12">
-        <v>-1.259778225979329</v>
-      </c>
-      <c r="E12">
-        <v>-0.9993964113468</v>
-      </c>
-      <c r="F12">
-        <v>-0.9167807478951771</v>
-      </c>
-      <c r="G12">
-        <v>-0.7866498775338552</v>
-      </c>
-      <c r="H12">
-        <v>-0.718395119803834</v>
-      </c>
-      <c r="I12">
-        <v>-0.5832032419646251</v>
-      </c>
-      <c r="J12">
-        <v>-0.5201761997163729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13">
-        <v>-1.317718930331854</v>
-      </c>
-      <c r="D13">
-        <v>-1.265506451330974</v>
-      </c>
-      <c r="E13">
-        <v>-1.019341327270925</v>
-      </c>
-      <c r="F13">
-        <v>-0.9400817560256486</v>
-      </c>
-      <c r="G13">
-        <v>-0.8061941801238588</v>
-      </c>
-      <c r="H13">
-        <v>-0.7404766672212862</v>
-      </c>
-      <c r="I13">
-        <v>-0.6156228519491763</v>
-      </c>
-      <c r="J13">
-        <v>-0.550506453468913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14">
-        <v>-1.305839270326524</v>
-      </c>
-      <c r="D14">
-        <v>-1.25977774952525</v>
-      </c>
-      <c r="E14">
-        <v>-1.026318025495689</v>
-      </c>
-      <c r="F14">
-        <v>-0.949566372680502</v>
-      </c>
-      <c r="G14">
-        <v>-0.8141072164522583</v>
-      </c>
-      <c r="H14">
-        <v>-0.751277092189904</v>
-      </c>
-      <c r="I14">
-        <v>-0.6405976091843272</v>
-      </c>
-      <c r="J14">
-        <v>-0.569062252895314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15">
-        <v>-1.286356854406479</v>
-      </c>
-      <c r="D15">
-        <v>-1.24484213028936</v>
-      </c>
-      <c r="E15">
-        <v>-1.025433273418731</v>
-      </c>
-      <c r="F15">
-        <v>-0.9537643319528358</v>
-      </c>
-      <c r="G15">
-        <v>-0.813837324160692</v>
-      </c>
-      <c r="H15">
-        <v>-0.7540502449004419</v>
-      </c>
-      <c r="I15">
-        <v>-0.6508173139504952</v>
-      </c>
-      <c r="J15">
-        <v>-0.5732230966215065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16">
-        <v>-1.260031476661005</v>
-      </c>
-      <c r="D16">
-        <v>-1.223435405778745</v>
-      </c>
-      <c r="E16">
-        <v>-1.018614549819845</v>
-      </c>
-      <c r="F16">
-        <v>-0.9518137514074451</v>
-      </c>
-      <c r="G16">
-        <v>-0.808672708210484</v>
-      </c>
-      <c r="H16">
-        <v>-0.7512765864417951</v>
-      </c>
-      <c r="I16">
-        <v>-0.6488579104674213</v>
-      </c>
-      <c r="J16">
-        <v>-0.5723427394288816</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17">
-        <v>-1.230151803979699</v>
-      </c>
-      <c r="D17">
-        <v>-1.198226870070352</v>
-      </c>
-      <c r="E17">
-        <v>-1.006674752841812</v>
-      </c>
-      <c r="F17">
-        <v>-0.9430500911287987</v>
-      </c>
-      <c r="G17">
-        <v>-0.8019595400697042</v>
-      </c>
-      <c r="H17">
-        <v>-0.7452224337254826</v>
-      </c>
-      <c r="I17">
-        <v>-0.644778131459848</v>
-      </c>
-      <c r="J17">
-        <v>-0.5705910071525392</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18">
-        <v>-1.195030893845233</v>
-      </c>
-      <c r="D18">
-        <v>-1.167881225643194</v>
-      </c>
-      <c r="E18">
-        <v>-0.9895098496045236</v>
-      </c>
-      <c r="F18">
-        <v>-0.9283795382415686</v>
-      </c>
-      <c r="G18">
-        <v>-0.7911575755559531</v>
-      </c>
-      <c r="H18">
-        <v>-0.7375372115659673</v>
-      </c>
-      <c r="I18">
-        <v>-0.6375514072603066</v>
-      </c>
-      <c r="J18">
-        <v>-0.565411784489259</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19">
-        <v>-1.160499109612035</v>
-      </c>
-      <c r="D19">
-        <v>-1.132759316074517</v>
-      </c>
-      <c r="E19">
-        <v>-0.9722955545864431</v>
-      </c>
-      <c r="F19">
-        <v>-0.913042166017177</v>
-      </c>
-      <c r="G19">
-        <v>-0.7753582549274955</v>
-      </c>
-      <c r="H19">
-        <v>-0.7248524517024311</v>
-      </c>
-      <c r="I19">
-        <v>-0.6250919280144563</v>
-      </c>
-      <c r="J19">
-        <v>-0.5524125173350604</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20">
-        <v>-1.128277914127521</v>
-      </c>
-      <c r="D20">
-        <v>-1.101545806535746</v>
-      </c>
-      <c r="E20">
-        <v>-0.9543152446140165</v>
-      </c>
-      <c r="F20">
-        <v>-0.8971119107403263</v>
-      </c>
-      <c r="G20">
-        <v>-0.7591325669742461</v>
-      </c>
-      <c r="H20">
-        <v>-0.7107389471921308</v>
-      </c>
-      <c r="I20">
-        <v>-0.6127884126996758</v>
-      </c>
-      <c r="J20">
-        <v>-0.5427664683237301</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21">
-        <v>-1.096125349353509</v>
-      </c>
-      <c r="D21">
-        <v>-1.070758188476334</v>
-      </c>
-      <c r="E21">
-        <v>-0.9346136929248283</v>
-      </c>
-      <c r="F21">
-        <v>-0.8799214932711226</v>
-      </c>
-      <c r="G21">
-        <v>-0.7429307674771034</v>
-      </c>
-      <c r="H21">
-        <v>-0.696441985814879</v>
-      </c>
-      <c r="I21">
-        <v>-0.5997333128274625</v>
-      </c>
-      <c r="J21">
-        <v>-0.532139932146765</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22">
-        <v>-1.062773909739825</v>
-      </c>
-      <c r="D22">
-        <v>-1.039805026926399</v>
-      </c>
-      <c r="E22">
-        <v>-0.913942793836704</v>
-      </c>
-      <c r="F22">
-        <v>-0.8613595184737916</v>
-      </c>
-      <c r="G22">
-        <v>-0.7256312513344115</v>
-      </c>
-      <c r="H22">
-        <v>-0.6813214708408729</v>
-      </c>
-      <c r="I22">
-        <v>-0.5853095375588818</v>
-      </c>
-      <c r="J22">
-        <v>-0.5201281947906623</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23">
-        <v>-1.030351506640508</v>
-      </c>
-      <c r="D23">
-        <v>-1.009068178349323</v>
-      </c>
-      <c r="E23">
-        <v>-0.8927717202411385</v>
-      </c>
-      <c r="F23">
-        <v>-0.8428837426784617</v>
-      </c>
-      <c r="G23">
-        <v>-0.708209961788267</v>
-      </c>
-      <c r="H23">
-        <v>-0.6657276564253574</v>
-      </c>
-      <c r="I23">
-        <v>-0.5705479170003817</v>
-      </c>
-      <c r="J23">
-        <v>-0.5066985586193629</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24">
-        <v>-0.9987442206043581</v>
-      </c>
-      <c r="D24">
-        <v>-0.978530548566962</v>
-      </c>
-      <c r="E24">
-        <v>-0.8707075032035855</v>
-      </c>
-      <c r="F24">
-        <v>-0.8239399902756197</v>
-      </c>
-      <c r="G24">
-        <v>-0.6897065217760584</v>
-      </c>
-      <c r="H24">
-        <v>-0.6493073975751902</v>
-      </c>
-      <c r="I24">
-        <v>-0.5555698491506826</v>
-      </c>
-      <c r="J24">
-        <v>-0.4926636609562283</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25">
-        <v>-0.9677356987580736</v>
-      </c>
-      <c r="D25">
-        <v>-0.9492834640163853</v>
-      </c>
-      <c r="E25">
-        <v>-0.8480136823916844</v>
-      </c>
-      <c r="F25">
-        <v>-0.8045632696925821</v>
-      </c>
-      <c r="G25">
-        <v>-0.6713946439616308</v>
-      </c>
-      <c r="H25">
-        <v>-0.6328538455066363</v>
-      </c>
-      <c r="I25">
-        <v>-0.5394851407093312</v>
-      </c>
-      <c r="J25">
-        <v>-0.4773491880516992</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26">
-        <v>-0.9375258057742744</v>
-      </c>
-      <c r="D26">
-        <v>-0.920268416343977</v>
-      </c>
-      <c r="E26">
-        <v>-0.8239817501849906</v>
-      </c>
-      <c r="F26">
-        <v>-0.7849386830216553</v>
-      </c>
-      <c r="G26">
-        <v>-0.6526490623558896</v>
-      </c>
-      <c r="H26">
-        <v>-0.6157406261841143</v>
-      </c>
-      <c r="I26">
-        <v>-0.5230289972450129</v>
-      </c>
-      <c r="J26">
-        <v>-0.4620267620593037</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27">
-        <v>-0.9073948201898772</v>
-      </c>
-      <c r="D27">
-        <v>-0.8913236355300824</v>
-      </c>
-      <c r="E27">
-        <v>-0.7994726082189993</v>
-      </c>
-      <c r="F27">
-        <v>-0.7632168601983645</v>
-      </c>
-      <c r="G27">
-        <v>-0.634079645858062</v>
-      </c>
-      <c r="H27">
-        <v>-0.5984901323439449</v>
-      </c>
-      <c r="I27">
-        <v>-0.5065996692311492</v>
-      </c>
-      <c r="J27">
-        <v>-0.4461570610066408</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28">
-        <v>-0.8784986501022057</v>
-      </c>
-      <c r="D28">
-        <v>-0.8632076447270018</v>
-      </c>
-      <c r="E28">
-        <v>-0.77488002827262</v>
-      </c>
-      <c r="F28">
-        <v>-0.7407399615659264</v>
-      </c>
-      <c r="G28">
-        <v>-0.6161689395545179</v>
-      </c>
-      <c r="H28">
-        <v>-0.5814031544493422</v>
-      </c>
-      <c r="I28">
-        <v>-0.4896115416115371</v>
-      </c>
-      <c r="J28">
-        <v>-0.4302156127659739</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
-      <c r="C29">
-        <v>-0.8506028642044133</v>
-      </c>
-      <c r="D29">
-        <v>-0.8355752759217248</v>
-      </c>
-      <c r="E29">
-        <v>-0.7506986162311302</v>
-      </c>
-      <c r="F29">
-        <v>-0.7183832735070521</v>
-      </c>
-      <c r="G29">
-        <v>-0.5988107266260618</v>
-      </c>
-      <c r="H29">
-        <v>-0.5643274919091218</v>
-      </c>
-      <c r="I29">
-        <v>-0.4730595800519842</v>
-      </c>
-      <c r="J29">
-        <v>-0.4136148947074327</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30">
-        <v>-0.8228113866212212</v>
-      </c>
-      <c r="D30">
-        <v>-0.8080236808448876</v>
-      </c>
-      <c r="E30">
-        <v>-0.7259404099851355</v>
-      </c>
-      <c r="F30">
-        <v>-0.69618547785142</v>
-      </c>
-      <c r="G30">
-        <v>-0.5839546749986667</v>
-      </c>
-      <c r="H30">
-        <v>-0.5475200913039995</v>
-      </c>
-      <c r="I30">
-        <v>-0.4568324893854908</v>
-      </c>
-      <c r="J30">
-        <v>-0.3969086860445634</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31">
-        <v>-0.7963187621701207</v>
-      </c>
-      <c r="D31">
-        <v>-0.7829610779720925</v>
-      </c>
-      <c r="E31">
-        <v>-0.7020230611395775</v>
-      </c>
-      <c r="F31">
-        <v>-0.6742242975796472</v>
-      </c>
-      <c r="G31">
-        <v>-0.5665691871063067</v>
-      </c>
-      <c r="H31">
-        <v>-0.5310438278810826</v>
-      </c>
-      <c r="I31">
-        <v>-0.4409890523338319</v>
-      </c>
-      <c r="J31">
-        <v>-0.3800675447967493</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32">
-        <v>-0.7708913932874053</v>
-      </c>
-      <c r="D32">
-        <v>-0.7933927647073249</v>
-      </c>
-      <c r="E32">
-        <v>-0.6786717152391104</v>
-      </c>
-      <c r="F32">
-        <v>-0.6513107990076258</v>
-      </c>
-      <c r="G32">
-        <v>-0.5505405502924841</v>
-      </c>
-      <c r="H32">
-        <v>-0.5150070561819678</v>
-      </c>
-      <c r="I32">
-        <v>-0.4251712867478825</v>
-      </c>
-      <c r="J32">
-        <v>-0.3626750671081122</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33">
-        <v>-0.7448982958080527</v>
-      </c>
-      <c r="D33">
-        <v>-0.7928947467124295</v>
-      </c>
-      <c r="E33">
-        <v>-0.6551208217252494</v>
-      </c>
-      <c r="F33">
-        <v>-0.6282019935485886</v>
-      </c>
-      <c r="G33">
-        <v>-0.5330347903311338</v>
-      </c>
-      <c r="H33">
-        <v>-0.4996957542938774</v>
-      </c>
-      <c r="I33">
-        <v>-0.4097283442240637</v>
-      </c>
-      <c r="J33">
-        <v>-0.3455350142945734</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34">
-        <v>-0.7679435399697763</v>
-      </c>
-      <c r="D34">
-        <v>-0.8015097399459998</v>
-      </c>
-      <c r="E34">
-        <v>-0.632536477012006</v>
-      </c>
-      <c r="F34">
-        <v>-0.606011554745036</v>
-      </c>
-      <c r="G34">
-        <v>-0.5145067360603066</v>
-      </c>
-      <c r="H34">
-        <v>-0.4833623296781808</v>
-      </c>
-      <c r="I34">
-        <v>-0.3950800422013662</v>
-      </c>
-      <c r="J34">
-        <v>-0.3286499439509396</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35">
-        <v>-0.7960441363840968</v>
-      </c>
-      <c r="D35">
-        <v>-0.8069034003703894</v>
-      </c>
-      <c r="E35">
-        <v>-0.6100109547243373</v>
-      </c>
-      <c r="F35">
-        <v>-0.5845508190670816</v>
-      </c>
-      <c r="G35">
-        <v>-0.4971971829941904</v>
-      </c>
-      <c r="H35">
-        <v>-0.4670297269333673</v>
-      </c>
-      <c r="I35">
-        <v>-0.3811395245297621</v>
-      </c>
-      <c r="J35">
-        <v>-0.3118707944419772</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36">
-        <v>-0.8195377362333802</v>
-      </c>
-      <c r="D36">
-        <v>-0.8487262956878112</v>
-      </c>
-      <c r="E36">
-        <v>-0.5883973904164662</v>
-      </c>
-      <c r="F36">
-        <v>-0.5630090692925769</v>
-      </c>
-      <c r="G36">
-        <v>-0.4806755525592801</v>
-      </c>
-      <c r="H36">
-        <v>-0.4496466010347325</v>
-      </c>
-      <c r="I36">
-        <v>-0.3671721204567637</v>
-      </c>
-      <c r="J36">
-        <v>-0.2949252097720106</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="C37">
-        <v>-0.838364629527964</v>
-      </c>
-      <c r="D37">
-        <v>-0.8486469867549049</v>
-      </c>
-      <c r="E37">
-        <v>-0.5676949717688731</v>
-      </c>
-      <c r="F37">
-        <v>-0.542035562645521</v>
-      </c>
-      <c r="G37">
-        <v>-0.4633387785369212</v>
-      </c>
-      <c r="H37">
-        <v>-0.4315366903561631</v>
-      </c>
-      <c r="I37">
-        <v>-0.3519885743078705</v>
-      </c>
-      <c r="J37">
-        <v>-0.2764305115461859</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
-      <c r="C38">
-        <v>-0.8544958882599742</v>
-      </c>
-      <c r="D38">
-        <v>-0.8427369138825728</v>
-      </c>
-      <c r="E38">
-        <v>-0.5481785407875533</v>
-      </c>
-      <c r="F38">
-        <v>-0.521908788183575</v>
-      </c>
-      <c r="G38">
-        <v>-0.4456133273631283</v>
-      </c>
-      <c r="H38">
-        <v>-0.4143918119426276</v>
-      </c>
-      <c r="I38">
-        <v>-0.3369829843557588</v>
-      </c>
-      <c r="J38">
-        <v>-0.2576536198572336</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
-      <c r="C39">
-        <v>-0.8645790559370415</v>
-      </c>
-      <c r="D39">
-        <v>-0.8301817061882789</v>
-      </c>
-      <c r="E39">
-        <v>-0.5297990039735081</v>
-      </c>
-      <c r="F39">
-        <v>-0.5028581508496867</v>
-      </c>
-      <c r="G39">
-        <v>-0.4283767002846753</v>
-      </c>
-      <c r="H39">
-        <v>-0.3972531388939123</v>
-      </c>
-      <c r="I39">
-        <v>-0.3215474623973422</v>
-      </c>
-      <c r="J39">
-        <v>-0.2389517080271222</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
-      <c r="C40">
-        <v>-0.8688397283003342</v>
-      </c>
-      <c r="D40">
-        <v>-0.8034728781920384</v>
-      </c>
-      <c r="E40">
-        <v>-0.5115539386311462</v>
-      </c>
-      <c r="F40">
-        <v>-0.4836127175644681</v>
-      </c>
-      <c r="G40">
-        <v>-0.41058349511366</v>
-      </c>
-      <c r="H40">
-        <v>-0.3795282552691593</v>
-      </c>
-      <c r="I40">
-        <v>-0.3068875180568206</v>
-      </c>
-      <c r="J40">
-        <v>-0.2197918867478397</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
-      <c r="C41">
-        <v>-0.8741415186830006</v>
-      </c>
-      <c r="D41">
-        <v>-0.7643969430747927</v>
-      </c>
-      <c r="E41">
-        <v>-0.4917448776797442</v>
-      </c>
-      <c r="F41">
-        <v>-0.4655714065390394</v>
-      </c>
-      <c r="G41">
-        <v>-0.3935411243420352</v>
-      </c>
-      <c r="H41">
-        <v>-0.3615478316847253</v>
-      </c>
-      <c r="I41">
-        <v>-0.2919304122482779</v>
-      </c>
-      <c r="J41">
-        <v>-0.1947706462441172</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
-      <c r="C42">
-        <v>-0.870152673492144</v>
-      </c>
-      <c r="D42">
-        <v>-0.7135704553523577</v>
-      </c>
-      <c r="E42">
-        <v>-0.4732070979321633</v>
-      </c>
-      <c r="F42">
-        <v>-0.4465672013417409</v>
-      </c>
-      <c r="G42">
-        <v>-0.3773954722834928</v>
-      </c>
-      <c r="H42">
-        <v>-0.3437608746503157</v>
-      </c>
-      <c r="I42">
-        <v>-0.2769507194750737</v>
-      </c>
-      <c r="J42">
-        <v>-0.1690202441841633</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="C43">
-        <v>-0.8713668393378291</v>
-      </c>
-      <c r="D43">
-        <v>-0.6519130523915252</v>
-      </c>
-      <c r="E43">
-        <v>-0.4529210416748919</v>
-      </c>
-      <c r="F43">
-        <v>-0.4276740148413393</v>
-      </c>
-      <c r="G43">
-        <v>-0.3622752010880246</v>
-      </c>
-      <c r="H43">
-        <v>-0.3256172063924855</v>
-      </c>
-      <c r="I43">
-        <v>-0.2614832678697668</v>
-      </c>
-      <c r="J43">
-        <v>-0.1419033022556098</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10">
-      <c r="C44">
-        <v>-0.855733598042691</v>
-      </c>
-      <c r="D44">
-        <v>-0.5874163109645266</v>
-      </c>
-      <c r="E44">
-        <v>-0.433447689946435</v>
-      </c>
-      <c r="F44">
-        <v>-0.4074061429663585</v>
-      </c>
-      <c r="G44">
-        <v>-0.3484167278639053</v>
-      </c>
-      <c r="H44">
-        <v>-0.3078707076253987</v>
-      </c>
-      <c r="I44">
-        <v>-0.2461231214837442</v>
-      </c>
-      <c r="J44">
-        <v>-0.1145772596883117</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
-      <c r="C45">
-        <v>-0.842864331608557</v>
-      </c>
-      <c r="D45">
-        <v>-0.5249374820805343</v>
-      </c>
-      <c r="E45">
-        <v>-0.4142966426246532</v>
-      </c>
-      <c r="F45">
-        <v>-0.3880739979040407</v>
-      </c>
-      <c r="G45">
-        <v>-0.3353685356426782</v>
-      </c>
-      <c r="H45">
-        <v>-0.2907078799893534</v>
-      </c>
-      <c r="I45">
-        <v>-0.2312114919669625</v>
-      </c>
-      <c r="J45">
-        <v>-0.08715349859799992</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46">
-        <v>-0.8296197993538141</v>
-      </c>
-      <c r="D46">
-        <v>-0.4843561319358354</v>
-      </c>
-      <c r="E46">
-        <v>-0.394759294405772</v>
-      </c>
-      <c r="F46">
-        <v>-0.3672254405416788</v>
-      </c>
-      <c r="G46">
-        <v>-0.3154522795979526</v>
-      </c>
-      <c r="H46">
-        <v>-0.2741847608616318</v>
-      </c>
-      <c r="I46">
-        <v>-0.2169190127737239</v>
-      </c>
-      <c r="J46">
-        <v>-0.05980711425015169</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10">
-      <c r="C47">
-        <v>-0.8070952092467514</v>
-      </c>
-      <c r="D47">
-        <v>-0.4498260205184612</v>
-      </c>
-      <c r="E47">
-        <v>-0.3750530173925093</v>
-      </c>
-      <c r="F47">
-        <v>-0.3473946451765412</v>
-      </c>
-      <c r="G47">
-        <v>-0.291167356179487</v>
-      </c>
-      <c r="H47">
-        <v>-0.2583578220330619</v>
-      </c>
-      <c r="I47">
-        <v>-0.1985318785748575</v>
-      </c>
-      <c r="J47">
-        <v>-0.03257900292004788</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="C48">
-        <v>-0.7797964254355182</v>
-      </c>
-      <c r="D48">
-        <v>-0.4172298441212756</v>
-      </c>
-      <c r="E48">
-        <v>-0.3560940910607419</v>
-      </c>
-      <c r="F48">
-        <v>-0.3268727350331601</v>
-      </c>
-      <c r="G48">
-        <v>-0.2674383647590898</v>
-      </c>
-      <c r="H48">
-        <v>-0.2433563535904181</v>
-      </c>
-      <c r="I48">
-        <v>-0.1760553289513175</v>
-      </c>
-      <c r="J48">
-        <v>-0.005663347236271281</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
-      <c r="C49">
-        <v>-0.787887681234681</v>
-      </c>
-      <c r="D49">
-        <v>-0.3844553283217582</v>
-      </c>
-      <c r="E49">
-        <v>-0.3369233916227875</v>
-      </c>
-      <c r="F49">
-        <v>-0.3060149073541947</v>
-      </c>
-      <c r="G49">
-        <v>-0.2431954168442487</v>
-      </c>
-      <c r="H49">
-        <v>-0.2219729231452282</v>
-      </c>
-      <c r="I49">
-        <v>-0.1528719461908971</v>
-      </c>
-      <c r="J49">
-        <v>0.02096256106692308</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10">
-      <c r="C50">
-        <v>-0.9507685066970432</v>
-      </c>
-      <c r="D50">
-        <v>-0.3531686823036234</v>
-      </c>
-      <c r="E50">
-        <v>-0.3174083596350298</v>
-      </c>
-      <c r="F50">
-        <v>-0.2851994959547074</v>
-      </c>
-      <c r="G50">
-        <v>-0.2171656562535146</v>
-      </c>
-      <c r="H50">
-        <v>-0.196894331449024</v>
-      </c>
-      <c r="I50">
-        <v>-0.1280036671241901</v>
-      </c>
-      <c r="J50">
-        <v>0.04765310857892425</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="C51">
-        <v>-0.9296446156776892</v>
-      </c>
-      <c r="D51">
-        <v>-0.3238198500049685</v>
-      </c>
-      <c r="E51">
-        <v>-0.2970910486228964</v>
-      </c>
-      <c r="F51">
-        <v>-0.2646597096712671</v>
-      </c>
-      <c r="G51">
-        <v>-0.1910496273965765</v>
-      </c>
-      <c r="H51">
-        <v>-0.1716091042162962</v>
-      </c>
-      <c r="I51">
-        <v>-0.1048578513500327</v>
-      </c>
-      <c r="J51">
-        <v>0.07478896513781703</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10">
-      <c r="C52">
-        <v>-0.8738236240864443</v>
-      </c>
-      <c r="D52">
-        <v>-0.2956312202177125</v>
-      </c>
-      <c r="E52">
-        <v>-0.2690817213196216</v>
-      </c>
-      <c r="F52">
-        <v>-0.2438203938477626</v>
-      </c>
-      <c r="G52">
-        <v>-0.1648007175172659</v>
-      </c>
-      <c r="H52">
-        <v>-0.1446518076864336</v>
-      </c>
-      <c r="I52">
-        <v>-0.08082829247839433</v>
-      </c>
-      <c r="J52">
-        <v>0.1015487975743475</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10">
-      <c r="C53">
-        <v>-0.8501789116680407</v>
-      </c>
-      <c r="D53">
-        <v>-0.2680027361502858</v>
-      </c>
-      <c r="E53">
-        <v>-0.2407465927500477</v>
-      </c>
-      <c r="F53">
-        <v>-0.2228450782901228</v>
-      </c>
-      <c r="G53">
-        <v>-0.1383483539922605</v>
-      </c>
-      <c r="H53">
-        <v>-0.1168621895425722</v>
-      </c>
-      <c r="I53">
-        <v>-0.05489455905534423</v>
-      </c>
-      <c r="J53">
-        <v>0.1286538736191052</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10">
-      <c r="C54">
-        <v>-0.8208874210720254</v>
-      </c>
-      <c r="D54">
-        <v>-0.228481034764874</v>
-      </c>
-      <c r="E54">
-        <v>-0.2125402392750467</v>
-      </c>
-      <c r="F54">
-        <v>-0.1938267628581376</v>
-      </c>
-      <c r="G54">
-        <v>-0.1116668082791179</v>
-      </c>
-      <c r="H54">
-        <v>-0.08878780794439521</v>
-      </c>
-      <c r="I54">
-        <v>-0.02843837576124436</v>
-      </c>
-      <c r="J54">
-        <v>0.1562369592122821</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10">
-      <c r="C55">
-        <v>-0.7745717310885042</v>
-      </c>
-      <c r="D55">
-        <v>-0.1920000553082541</v>
-      </c>
-      <c r="E55">
-        <v>-0.184089626830414</v>
-      </c>
-      <c r="F55">
-        <v>-0.1646540640834013</v>
-      </c>
-      <c r="G55">
-        <v>-0.08429646175913455</v>
-      </c>
-      <c r="H55">
-        <v>-0.06013901644980005</v>
-      </c>
-      <c r="I55">
-        <v>0.002595099518420881</v>
-      </c>
-      <c r="J55">
-        <v>0.1843585414273288</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="C56">
-        <v>-0.7228799700077132</v>
-      </c>
-      <c r="D56">
-        <v>-0.1589219490598936</v>
-      </c>
-      <c r="E56">
-        <v>-0.1550654849383505</v>
-      </c>
-      <c r="F56">
-        <v>-0.1349212597788041</v>
-      </c>
-      <c r="G56">
-        <v>-0.05669875080481133</v>
-      </c>
-      <c r="H56">
-        <v>-0.02940706553589165</v>
-      </c>
-      <c r="I56">
-        <v>0.03766510835016458</v>
-      </c>
-      <c r="J56">
-        <v>0.2130848612745468</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
-      <c r="C57">
-        <v>-0.6567073797174467</v>
-      </c>
-      <c r="D57">
-        <v>-0.125654209186143</v>
-      </c>
-      <c r="E57">
-        <v>-0.1257152597864719</v>
-      </c>
-      <c r="F57">
-        <v>-0.1048662324513317</v>
-      </c>
-      <c r="G57">
-        <v>-0.0285010158871033</v>
-      </c>
-      <c r="H57">
-        <v>0.002304590343979502</v>
-      </c>
-      <c r="I57">
-        <v>0.07393775448918173</v>
-      </c>
-      <c r="J57">
-        <v>0.2429155797815172</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10">
-      <c r="C58">
-        <v>-0.5982137495484988</v>
-      </c>
-      <c r="D58">
-        <v>-0.09216209876505846</v>
-      </c>
-      <c r="E58">
-        <v>-0.0952866666589474</v>
-      </c>
-      <c r="F58">
-        <v>-0.07397741590458289</v>
-      </c>
-      <c r="G58">
-        <v>0.0005329846738590479</v>
-      </c>
-      <c r="H58">
-        <v>0.03333754697192281</v>
-      </c>
-      <c r="I58">
-        <v>0.1113792666692554</v>
-      </c>
-      <c r="J58">
-        <v>0.2760595801135263</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10">
-      <c r="C59">
-        <v>-0.5437022631437437</v>
-      </c>
-      <c r="D59">
-        <v>-0.0578468393755338</v>
-      </c>
-      <c r="E59">
-        <v>-0.06320189148530306</v>
-      </c>
-      <c r="F59">
-        <v>-0.0433693801227427</v>
-      </c>
-      <c r="G59">
-        <v>0.03110635060380379</v>
-      </c>
-      <c r="H59">
-        <v>0.06470088711665539</v>
-      </c>
-      <c r="I59">
-        <v>0.1507344143885064</v>
-      </c>
-      <c r="J59">
-        <v>0.305738055400421</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
-      <c r="C60">
-        <v>-0.4263564839481653</v>
-      </c>
-      <c r="D60">
-        <v>-0.02319076564993173</v>
-      </c>
-      <c r="E60">
-        <v>-0.03521416400813801</v>
-      </c>
-      <c r="F60">
-        <v>-0.01054350310747466</v>
-      </c>
-      <c r="G60">
-        <v>0.06016118521109558</v>
-      </c>
-      <c r="H60">
-        <v>0.09659590878621907</v>
-      </c>
-      <c r="I60">
-        <v>0.191087949994833</v>
-      </c>
-      <c r="J60">
-        <v>0.3386176720925797</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10">
-      <c r="C61">
-        <v>-0.3221615109108306</v>
-      </c>
-      <c r="D61">
-        <v>0.01193730847696872</v>
-      </c>
-      <c r="E61">
-        <v>-0.007326383997211024</v>
-      </c>
-      <c r="F61">
-        <v>0.02059554596269191</v>
-      </c>
-      <c r="G61">
-        <v>0.08935874897302465</v>
-      </c>
-      <c r="H61">
-        <v>0.1300044149643379</v>
-      </c>
-      <c r="I61">
-        <v>0.2293384807685197</v>
-      </c>
-      <c r="J61">
-        <v>0.3731109072079579</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10">
-      <c r="C62">
-        <v>-0.209887784181493</v>
-      </c>
-      <c r="D62">
-        <v>0.04730863770901696</v>
-      </c>
-      <c r="E62">
-        <v>0.02052612734368738</v>
-      </c>
-      <c r="F62">
-        <v>0.05023409398173864</v>
-      </c>
-      <c r="G62">
-        <v>0.1185274242179764</v>
-      </c>
-      <c r="H62">
-        <v>0.1632375016053322</v>
-      </c>
-      <c r="I62">
-        <v>0.2681612044843656</v>
-      </c>
-      <c r="J62">
-        <v>0.4089692790359917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HJ63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9987,85 +8332,85 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BW1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CE1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CM1" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CU1" t="s">
         <v>31</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DC1" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DK1" t="s">
         <v>33</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DS1" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EA1" t="s">
         <v>35</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EI1" t="s">
         <v>36</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EQ1" t="s">
         <v>37</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EY1" t="s">
         <v>38</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>39</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FO1" t="s">
         <v>40</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FW1" t="s">
         <v>41</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GE1" t="s">
         <v>42</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GM1" t="s">
         <v>43</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GU1" t="s">
         <v>44</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>45</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:218">
@@ -10073,7 +8418,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -10729,7 +9074,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -50385,7 +48730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HJ63"/>
   <sheetViews>
@@ -50515,85 +48860,85 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BW1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CE1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CM1" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CU1" t="s">
         <v>31</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DC1" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DK1" t="s">
         <v>33</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DS1" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EA1" t="s">
         <v>35</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EI1" t="s">
         <v>36</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EQ1" t="s">
         <v>37</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EY1" t="s">
         <v>38</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>39</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FO1" t="s">
         <v>40</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FW1" t="s">
         <v>41</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GE1" t="s">
         <v>42</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GM1" t="s">
         <v>43</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GU1" t="s">
         <v>44</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>45</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:218">
@@ -50601,7 +48946,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -51257,655 +49602,655 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ED3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ER3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ES3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ET3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:218">
